--- a/docs/source/spec/SATRE.2.0.-.Reorg.xlsx
+++ b/docs/source/spec/SATRE.2.0.-.Reorg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/rmhztwm_ucl_ac_uk/Documents/UCL_Architect/TREvolution/SATRE 2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/rmhztwm_ucl_ac_uk/Documents/UCL_Architect/TREvolution/machintim_SATRE_Specification_repo/satre-specification/docs/source/spec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{3D640743-D7D8-496E-BB58-8B1A5381C9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3FDB21D-8027-456A-9D07-BB1150C48137}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB48FA8-A67B-4191-87AD-C3DCF8739E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C4698D5-3A7A-4444-B9A8-9324CAD80017}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="656">
   <si>
     <t>Pillar</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Information Governance</t>
-  </si>
-  <si>
-    <t>Info Gov 1.1</t>
   </si>
   <si>
     <t>1.0.1.</t>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>Quality Management</t>
-  </si>
-  <si>
-    <t>SATRE 1.1</t>
   </si>
   <si>
     <t>1.1.1.</t>
@@ -1713,10 +1707,427 @@
     <t>These contracts may include data sharing agreements, secondments of personnel or limitations on how results obtained with the data can be distributed.</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>v1.1.0-9890a5d</t>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-cd9fc0cff0b04aa98323bfd6c37ccad3</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-cd9fc0cff0b04aa98323bfd6c37ccad4</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-cd9fc0cff0b04aa98323bfd6c37ccad5</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a8</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a9</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a10</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a11</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a12</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a13</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a14</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a15</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a16</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a17</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a18</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a19</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-613a204c1e324a4c8bb427a57152af77</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-613a204c1e324a4c8bb427a57152af78</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-613a204c1e324a4c8bb427a57152af79</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-613a204c1e324a4c8bb427a57152af80</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-613a204c1e324a4c8bb427a57152af81</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-410884ca4e76424c9a5486780d339165</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-410884ca4e76424c9a5486780d339164</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-410884ca4e76424c9a5486780d339166</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-410884ca4e76424c9a5486780d339167</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-410884ca4e76424c9a5486780d339168</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-410884ca4e76424c9a5486780d339169</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-410884ca4e76424c9a5486780d339170</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-85f613508f004ef18e19fdf041e1f0a0</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-85f613508f004ef18e19fdf041e1f0a1</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-85f613508f004ef18e19fdf041e1f0a2</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-85f613508f004ef18e19fdf041e1f0a3</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-85f613508f004ef18e19fdf041e1f0a4</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-85f613508f004ef18e19fdf041e1f0a5</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-ba6c25da48e94d37abe02e4dca7b55b7</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-ba6c25da48e94d37abe02e4dca7b55b8</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-ba6c25da48e94d37abe02e4dca7b55b9</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-ba6c25da48e94d37abe02e4dca7b55b10</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-ba6c25da48e94d37abe02e4dca7b55b11</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-ba6c25da48e94d37abe02e4dca7b55b12</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-ba6c25da48e94d37abe02e4dca7b55b13</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-ba6c25da48e94d37abe02e4dca7b55b14</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-ba6c25da48e94d37abe02e4dca7b55b15</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b51</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b52</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b53</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b54</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b55</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b56</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b57</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b58</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b59</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b60</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b61</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b62</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b63</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b64</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b65</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b66</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b67</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-1a1dd29e1bac4f1c9f137debcc2a3b68</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689273</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689274</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689275</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689276</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689277</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689278</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689279</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689280</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689281</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689282</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689283</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689284</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689285</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689286</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689287</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b106251e04304d2a92637a1fd5689288</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-2f5f0a5b8a8b48a9b284aa2c6bc8faf6</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-2f5f0a5b8a8b48a9b284aa2c6bc8faf7</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-2f5f0a5b8a8b48a9b284aa2c6bc8faf8</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-2f5f0a5b8a8b48a9b284aa2c6bc8faf9</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-4512cf0c27f046b491dca59957a3732f</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f4</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f5</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f6</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f7</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f8</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f9</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f10</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f11</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f12</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f13</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f14</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f15</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f16</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f17</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f18</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f19</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f20</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-99ff165db6264d4ba94b36d9d014f9f21</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-b039ff3b59d047f0b6e9bd95ec5f7c6f</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-61a1ee491f29467abc1d99172ac34504</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-61a1ee491f29467abc1d99172ac34505</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-61a1ee491f29467abc1d99172ac34506</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-61a1ee491f29467abc1d99172ac34507</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-61a1ee491f29467abc1d99172ac34508</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-61a1ee491f29467abc1d99172ac34509</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-769b630239bb410a884dce9ee0f6745c</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-176cdec84e4c4db59c8d9ac973c1b857</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-52fc27d7c99f4324a6e922fbb455628e</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-89f57ba746fc41fc8a22e8d2be87537f</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-e02301f9b1314503934a377bf5642b15</t>
+  </si>
+  <si>
+    <t>Business Continuity</t>
+  </si>
+  <si>
+    <t>Projectect and Programme Management</t>
+  </si>
+  <si>
+    <t>Knowledge Management</t>
+  </si>
+  <si>
+    <t>Financial Management</t>
+  </si>
+  <si>
+    <t>Procurement</t>
+  </si>
+  <si>
+    <t>IT Service Management</t>
+  </si>
+  <si>
+    <t>Relationship Management</t>
+  </si>
+  <si>
+    <t>Public Involvement and Engagement</t>
+  </si>
+  <si>
+    <t>Legal Services</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6936</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6937</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6938</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6939</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6940</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6941</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6942</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6943</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6944</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6945</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6946</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6947</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6948</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6949</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6950</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6951</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6952</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6953</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6954</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6955</t>
+  </si>
+  <si>
+    <t>https://satre-archimate.readthedocs.io/en/latest/?view=id-f28b720cce80472ebb8aeb05b2ba6956</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +2137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2224,7 +2635,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2232,6 +2643,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2608,17 +3020,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C282A88F-6A7B-4683-9879-E28E058A3530}">
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="4" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="150.140625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="141.28515625" customWidth="1"/>
     <col min="7" max="7" width="178.85546875" customWidth="1"/>
@@ -2628,7 +3041,7 @@
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2663,7 +3076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2673,23 +3086,23 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2699,23 +3112,23 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
+      <c r="D3" s="5" t="s">
+        <v>516</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2725,23 +3138,23 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
+      <c r="D4" s="5" t="s">
+        <v>517</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2749,25 +3162,25 @@
         <v>1.2</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2775,22 +3188,25 @@
         <v>1.2</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>519</v>
       </c>
       <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2798,22 +3214,25 @@
         <v>1.2</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2821,22 +3240,25 @@
         <v>1.2</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
       <c r="H8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2844,22 +3266,25 @@
         <v>1.2</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2867,22 +3292,25 @@
         <v>1.2</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2890,22 +3318,25 @@
         <v>1.2</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2913,22 +3344,25 @@
         <v>1.2</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>525</v>
       </c>
       <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2936,22 +3370,25 @@
         <v>1.2</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>526</v>
       </c>
       <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
       <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2959,22 +3396,25 @@
         <v>1.2</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
         <v>55</v>
       </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
-      </c>
       <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2982,22 +3422,25 @@
         <v>1.2</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3005,22 +3448,25 @@
         <v>1.2</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>529</v>
       </c>
       <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3028,25 +3474,25 @@
         <v>1.2</v>
       </c>
       <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>66</v>
       </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" t="s">
-        <v>68</v>
-      </c>
       <c r="H17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3054,22 +3500,25 @@
         <v>1.2</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>531</v>
       </c>
       <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3077,22 +3526,25 @@
         <v>1.2</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>532</v>
       </c>
       <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
         <v>72</v>
       </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
       <c r="H19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -3100,22 +3552,25 @@
         <v>1.2</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>533</v>
       </c>
       <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3123,22 +3578,25 @@
         <v>1.2</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
         <v>78</v>
       </c>
-      <c r="F21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
       <c r="H21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -3146,25 +3604,25 @@
         <v>1.3</v>
       </c>
       <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>536</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>82</v>
       </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" t="s">
-        <v>84</v>
-      </c>
       <c r="H22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -3172,22 +3630,25 @@
         <v>1.3</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>535</v>
       </c>
       <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="H23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -3195,19 +3656,22 @@
         <v>1.3</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>537</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3215,22 +3679,25 @@
         <v>1.3</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>538</v>
       </c>
       <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s">
         <v>90</v>
       </c>
-      <c r="F25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" t="s">
-        <v>92</v>
-      </c>
       <c r="H25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -3238,22 +3705,25 @@
         <v>1.3</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>539</v>
       </c>
       <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="H26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3261,22 +3731,25 @@
         <v>1.3</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>540</v>
       </c>
       <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="H27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -3284,22 +3757,25 @@
         <v>1.3</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>541</v>
       </c>
       <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" t="s">
         <v>99</v>
       </c>
-      <c r="F28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" t="s">
-        <v>101</v>
-      </c>
       <c r="H28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -3307,25 +3783,25 @@
         <v>1.4</v>
       </c>
       <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>103</v>
       </c>
-      <c r="F29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" t="s">
-        <v>105</v>
-      </c>
       <c r="H29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -3333,22 +3809,25 @@
         <v>1.4</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>543</v>
       </c>
       <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
         <v>106</v>
       </c>
-      <c r="F30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" t="s">
-        <v>108</v>
-      </c>
       <c r="H30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3356,22 +3835,25 @@
         <v>1.4</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" t="s">
         <v>109</v>
       </c>
-      <c r="F31" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" t="s">
-        <v>111</v>
-      </c>
       <c r="H31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3379,22 +3861,25 @@
         <v>1.4</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>545</v>
       </c>
       <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" t="s">
         <v>112</v>
       </c>
-      <c r="F32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" t="s">
-        <v>114</v>
-      </c>
       <c r="H32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -3402,22 +3887,25 @@
         <v>1.4</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" t="s">
         <v>115</v>
       </c>
-      <c r="F33" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" t="s">
-        <v>117</v>
-      </c>
       <c r="H33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -3425,22 +3913,25 @@
         <v>1.4</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>547</v>
       </c>
       <c r="E34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F34" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3448,25 +3939,25 @@
         <v>1.5</v>
       </c>
       <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="G35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F35" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -3474,22 +3965,25 @@
         <v>1.5</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>549</v>
       </c>
       <c r="E36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="H36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -3497,22 +3991,25 @@
         <v>1.5</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F37" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="H37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3520,22 +4017,25 @@
         <v>1.5</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="E38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="H38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -3543,22 +4043,25 @@
         <v>1.5</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>552</v>
       </c>
       <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" t="s">
         <v>134</v>
       </c>
-      <c r="F39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" t="s">
-        <v>136</v>
-      </c>
       <c r="H39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3566,22 +4069,25 @@
         <v>1.5</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="E40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F40" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="H40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -3589,22 +4095,25 @@
         <v>1.5</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>554</v>
       </c>
       <c r="E41" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" t="s">
         <v>140</v>
       </c>
-      <c r="F41" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" t="s">
-        <v>142</v>
-      </c>
       <c r="H41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -3612,22 +4121,25 @@
         <v>1.5</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>555</v>
       </c>
       <c r="E42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F42" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="H42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -3635,2687 +4147,3096 @@
         <v>1.5</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="E43" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>147</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="45">
-      <c r="A44" t="s">
-        <v>149</v>
       </c>
       <c r="B44" s="2">
         <v>2.1</v>
       </c>
       <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>557</v>
+      </c>
+      <c r="E44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" t="s">
         <v>150</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F44" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="H44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B45" s="2">
         <v>2.1</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D45" t="s">
+        <v>558</v>
       </c>
       <c r="E45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F45" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="H45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B46" s="2">
         <v>2.1</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D46" t="s">
+        <v>559</v>
       </c>
       <c r="E46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" t="s">
+        <v>156</v>
+      </c>
+      <c r="G46" t="s">
         <v>157</v>
       </c>
-      <c r="F46" t="s">
-        <v>158</v>
-      </c>
-      <c r="G46" t="s">
-        <v>159</v>
-      </c>
       <c r="H46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B47" s="2">
         <v>2.1</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>560</v>
       </c>
       <c r="E47" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F47" t="s">
-        <v>161</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="H47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B48" s="2">
         <v>2.1</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D48" t="s">
+        <v>561</v>
       </c>
       <c r="E48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F48" t="s">
-        <v>164</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="H48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B49" s="2">
         <v>2.1</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>562</v>
       </c>
       <c r="E49" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" t="s">
         <v>166</v>
       </c>
-      <c r="F49" t="s">
-        <v>167</v>
-      </c>
-      <c r="G49" t="s">
-        <v>168</v>
-      </c>
       <c r="H49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B50" s="2">
         <v>2.1</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
+        <v>563</v>
       </c>
       <c r="E50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B51" s="2">
         <v>2.1</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D51" t="s">
+        <v>564</v>
       </c>
       <c r="E51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F51" t="s">
-        <v>173</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="H51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B52" s="2">
         <v>2.1</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>565</v>
       </c>
       <c r="E52" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F52" t="s">
-        <v>176</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="H52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B53" s="2">
         <v>2.1</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D53" t="s">
+        <v>566</v>
       </c>
       <c r="E53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53" t="s">
+        <v>177</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F53" t="s">
-        <v>179</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="H53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B54" s="2">
         <v>2.1</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>567</v>
       </c>
       <c r="E54" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" t="s">
+        <v>180</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F54" t="s">
-        <v>182</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="H54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B55" s="2">
         <v>2.1</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D55" t="s">
+        <v>568</v>
       </c>
       <c r="E55" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" t="s">
+        <v>183</v>
+      </c>
+      <c r="G55" t="s">
         <v>184</v>
       </c>
-      <c r="F55" t="s">
-        <v>185</v>
-      </c>
-      <c r="G55" t="s">
-        <v>186</v>
-      </c>
       <c r="H55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B56" s="2">
         <v>2.1</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D56" t="s">
+        <v>569</v>
       </c>
       <c r="E56" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F56" t="s">
-        <v>188</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="H56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="60">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B57" s="2">
         <v>2.1</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D57" t="s">
+        <v>570</v>
       </c>
       <c r="E57" t="s">
+        <v>188</v>
+      </c>
+      <c r="F57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F57" t="s">
-        <v>191</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B58" s="2">
         <v>2.1</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D58" t="s">
+        <v>571</v>
       </c>
       <c r="E58" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="H58" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B59" s="2">
         <v>2.1</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D59" t="s">
+        <v>572</v>
       </c>
       <c r="E59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F59" t="s">
-        <v>197</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B60" s="2">
         <v>2.1</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>573</v>
       </c>
       <c r="E60" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60" t="s">
+        <v>198</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F60" t="s">
-        <v>200</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="H60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B61" s="2">
         <v>2.1</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D61" t="s">
+        <v>574</v>
       </c>
       <c r="E61" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" t="s">
+        <v>201</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F61" t="s">
-        <v>203</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B62" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C62" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" t="s">
+        <v>575</v>
+      </c>
+      <c r="E62" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" t="s">
         <v>205</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>206</v>
       </c>
-      <c r="F62" t="s">
-        <v>207</v>
-      </c>
-      <c r="G62" t="s">
-        <v>208</v>
-      </c>
       <c r="H62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B63" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D63" t="s">
+        <v>576</v>
       </c>
       <c r="E63" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" t="s">
+        <v>208</v>
+      </c>
+      <c r="G63" t="s">
         <v>209</v>
       </c>
-      <c r="F63" t="s">
-        <v>210</v>
-      </c>
-      <c r="G63" t="s">
-        <v>211</v>
-      </c>
       <c r="H63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B64" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D64" t="s">
+        <v>577</v>
       </c>
       <c r="E64" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" t="s">
+        <v>211</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F64" t="s">
-        <v>213</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="H64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B65" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D65" t="s">
+        <v>578</v>
       </c>
       <c r="E65" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" t="s">
+        <v>214</v>
+      </c>
+      <c r="G65" t="s">
         <v>215</v>
       </c>
-      <c r="F65" t="s">
-        <v>216</v>
-      </c>
-      <c r="G65" t="s">
-        <v>217</v>
-      </c>
       <c r="H65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B66" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D66" t="s">
+        <v>579</v>
       </c>
       <c r="E66" t="s">
+        <v>216</v>
+      </c>
+      <c r="F66" t="s">
+        <v>217</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F66" t="s">
-        <v>219</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="H66" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B67" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D67" t="s">
+        <v>580</v>
       </c>
       <c r="E67" t="s">
+        <v>219</v>
+      </c>
+      <c r="F67" t="s">
+        <v>220</v>
+      </c>
+      <c r="G67" t="s">
         <v>221</v>
       </c>
-      <c r="F67" t="s">
-        <v>222</v>
-      </c>
-      <c r="G67" t="s">
-        <v>223</v>
-      </c>
       <c r="H67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B68" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D68" t="s">
+        <v>581</v>
       </c>
       <c r="E68" t="s">
+        <v>222</v>
+      </c>
+      <c r="F68" t="s">
+        <v>223</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F68" t="s">
-        <v>225</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="H68" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B69" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D69" t="s">
+        <v>582</v>
       </c>
       <c r="E69" t="s">
+        <v>225</v>
+      </c>
+      <c r="F69" t="s">
+        <v>226</v>
+      </c>
+      <c r="G69" t="s">
         <v>227</v>
       </c>
-      <c r="F69" t="s">
-        <v>228</v>
-      </c>
-      <c r="G69" t="s">
-        <v>229</v>
-      </c>
       <c r="H69" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B70" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D70" t="s">
+        <v>583</v>
       </c>
       <c r="E70" t="s">
+        <v>228</v>
+      </c>
+      <c r="F70" t="s">
+        <v>229</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F70" t="s">
-        <v>231</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="H70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D71" t="s">
+        <v>584</v>
       </c>
       <c r="E71" t="s">
+        <v>231</v>
+      </c>
+      <c r="F71" t="s">
+        <v>232</v>
+      </c>
+      <c r="G71" t="s">
         <v>233</v>
       </c>
-      <c r="F71" t="s">
-        <v>234</v>
-      </c>
-      <c r="G71" t="s">
-        <v>235</v>
-      </c>
       <c r="H71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D72" t="s">
+        <v>585</v>
       </c>
       <c r="E72" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72" t="s">
+        <v>235</v>
+      </c>
+      <c r="G72" t="s">
         <v>236</v>
       </c>
-      <c r="F72" t="s">
-        <v>237</v>
-      </c>
-      <c r="G72" t="s">
-        <v>238</v>
-      </c>
       <c r="H72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D73" t="s">
+        <v>586</v>
       </c>
       <c r="E73" t="s">
+        <v>237</v>
+      </c>
+      <c r="F73" t="s">
+        <v>238</v>
+      </c>
+      <c r="G73" t="s">
         <v>239</v>
       </c>
-      <c r="F73" t="s">
-        <v>240</v>
-      </c>
-      <c r="G73" t="s">
-        <v>241</v>
-      </c>
       <c r="H73" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D74" t="s">
+        <v>587</v>
       </c>
       <c r="E74" t="s">
+        <v>240</v>
+      </c>
+      <c r="F74" t="s">
+        <v>241</v>
+      </c>
+      <c r="G74" t="s">
         <v>242</v>
       </c>
-      <c r="F74" t="s">
-        <v>243</v>
-      </c>
-      <c r="G74" t="s">
-        <v>244</v>
-      </c>
       <c r="H74" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B75" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D75" t="s">
+        <v>588</v>
       </c>
       <c r="E75" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" t="s">
+        <v>244</v>
+      </c>
+      <c r="G75" t="s">
         <v>245</v>
       </c>
-      <c r="F75" t="s">
-        <v>246</v>
-      </c>
-      <c r="G75" t="s">
-        <v>247</v>
-      </c>
       <c r="H75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D76" t="s">
+        <v>589</v>
       </c>
       <c r="E76" t="s">
+        <v>246</v>
+      </c>
+      <c r="F76" t="s">
+        <v>247</v>
+      </c>
+      <c r="G76" t="s">
         <v>248</v>
       </c>
-      <c r="F76" t="s">
-        <v>249</v>
-      </c>
-      <c r="G76" t="s">
-        <v>250</v>
-      </c>
       <c r="H76" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B77" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D77" t="s">
+        <v>590</v>
       </c>
       <c r="E77" t="s">
+        <v>249</v>
+      </c>
+      <c r="F77" t="s">
+        <v>250</v>
+      </c>
+      <c r="G77" t="s">
         <v>251</v>
       </c>
-      <c r="F77" t="s">
-        <v>252</v>
-      </c>
-      <c r="G77" t="s">
-        <v>253</v>
-      </c>
       <c r="H77" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B78" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="C78" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" t="s">
+        <v>591</v>
+      </c>
+      <c r="E78" t="s">
+        <v>253</v>
+      </c>
+      <c r="F78" t="s">
         <v>254</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G78" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F78" t="s">
-        <v>256</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="H78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B79" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="C79" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="D79" t="s">
+        <v>592</v>
       </c>
       <c r="E79" t="s">
+        <v>256</v>
+      </c>
+      <c r="F79" t="s">
+        <v>257</v>
+      </c>
+      <c r="G79" t="s">
         <v>258</v>
       </c>
-      <c r="F79" t="s">
-        <v>259</v>
-      </c>
-      <c r="G79" t="s">
-        <v>260</v>
-      </c>
       <c r="H79" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B80" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="D80" t="s">
+        <v>593</v>
       </c>
       <c r="E80" t="s">
+        <v>259</v>
+      </c>
+      <c r="F80" t="s">
+        <v>260</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F80" t="s">
-        <v>262</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="H80" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B81" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="C81" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="D81" t="s">
+        <v>594</v>
       </c>
       <c r="E81" t="s">
+        <v>262</v>
+      </c>
+      <c r="F81" t="s">
+        <v>263</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F81" t="s">
-        <v>265</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="H81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2">
         <v>2.4</v>
       </c>
       <c r="C82" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" t="s">
+        <v>595</v>
+      </c>
+      <c r="E82" t="s">
+        <v>266</v>
+      </c>
+      <c r="F82" t="s">
         <v>267</v>
       </c>
-      <c r="E82" t="s">
-        <v>268</v>
-      </c>
-      <c r="F82" t="s">
-        <v>269</v>
-      </c>
       <c r="G82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H82" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B83" s="2">
         <v>2.4</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="D83" t="s">
+        <v>595</v>
       </c>
       <c r="E83" t="s">
+        <v>268</v>
+      </c>
+      <c r="F83" t="s">
+        <v>269</v>
+      </c>
+      <c r="G83" t="s">
         <v>270</v>
       </c>
-      <c r="F83" t="s">
-        <v>271</v>
-      </c>
-      <c r="G83" t="s">
-        <v>272</v>
-      </c>
       <c r="H83" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B84" s="2">
         <v>2.4</v>
       </c>
       <c r="C84" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="D84" t="s">
+        <v>595</v>
       </c>
       <c r="E84" t="s">
+        <v>271</v>
+      </c>
+      <c r="F84" t="s">
+        <v>272</v>
+      </c>
+      <c r="G84" t="s">
         <v>273</v>
       </c>
-      <c r="F84" t="s">
-        <v>274</v>
-      </c>
-      <c r="G84" t="s">
-        <v>275</v>
-      </c>
       <c r="H84" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B85" s="2">
         <v>2.4</v>
       </c>
       <c r="C85" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="D85" t="s">
+        <v>595</v>
       </c>
       <c r="E85" t="s">
+        <v>274</v>
+      </c>
+      <c r="F85" t="s">
+        <v>275</v>
+      </c>
+      <c r="G85" t="s">
         <v>276</v>
       </c>
-      <c r="F85" t="s">
-        <v>277</v>
-      </c>
-      <c r="G85" t="s">
-        <v>278</v>
-      </c>
       <c r="H85" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B86" s="2">
         <v>2.4</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="D86" t="s">
+        <v>595</v>
       </c>
       <c r="E86" t="s">
+        <v>277</v>
+      </c>
+      <c r="F86" t="s">
+        <v>278</v>
+      </c>
+      <c r="G86" t="s">
         <v>279</v>
       </c>
-      <c r="F86" t="s">
-        <v>280</v>
-      </c>
-      <c r="G86" t="s">
-        <v>281</v>
-      </c>
       <c r="H86" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B87" s="2">
         <v>2.5</v>
       </c>
       <c r="C87" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" t="s">
+        <v>596</v>
+      </c>
+      <c r="E87" t="s">
+        <v>281</v>
+      </c>
+      <c r="F87" t="s">
         <v>282</v>
       </c>
-      <c r="E87" t="s">
+      <c r="G87" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F87" t="s">
-        <v>284</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="H87" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B88" s="2">
         <v>2.5</v>
       </c>
       <c r="C88" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D88" t="s">
+        <v>597</v>
       </c>
       <c r="E88" t="s">
+        <v>284</v>
+      </c>
+      <c r="F88" t="s">
+        <v>285</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F88" t="s">
-        <v>287</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="H88" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B89" s="2">
         <v>2.5</v>
       </c>
       <c r="C89" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D89" t="s">
+        <v>598</v>
       </c>
       <c r="E89" t="s">
+        <v>287</v>
+      </c>
+      <c r="F89" t="s">
+        <v>288</v>
+      </c>
+      <c r="G89" t="s">
         <v>289</v>
       </c>
-      <c r="F89" t="s">
-        <v>290</v>
-      </c>
-      <c r="G89" t="s">
-        <v>291</v>
-      </c>
       <c r="H89" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B90" s="2">
         <v>2.5</v>
       </c>
       <c r="C90" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D90" t="s">
+        <v>599</v>
       </c>
       <c r="E90" t="s">
+        <v>290</v>
+      </c>
+      <c r="F90" t="s">
+        <v>291</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F90" t="s">
-        <v>293</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="H90" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B91" s="2">
         <v>2.5</v>
       </c>
       <c r="C91" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D91" t="s">
+        <v>600</v>
       </c>
       <c r="E91" t="s">
+        <v>293</v>
+      </c>
+      <c r="F91" t="s">
+        <v>294</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F91" t="s">
-        <v>296</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="H91" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B92" s="2">
         <v>2.5</v>
       </c>
       <c r="C92" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D92" t="s">
+        <v>601</v>
       </c>
       <c r="E92" t="s">
+        <v>296</v>
+      </c>
+      <c r="F92" t="s">
+        <v>297</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F92" t="s">
-        <v>299</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="H92" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B93" s="2">
         <v>2.5</v>
       </c>
       <c r="C93" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D93" t="s">
+        <v>602</v>
       </c>
       <c r="E93" t="s">
+        <v>299</v>
+      </c>
+      <c r="F93" t="s">
+        <v>300</v>
+      </c>
+      <c r="G93" t="s">
         <v>301</v>
       </c>
-      <c r="F93" t="s">
-        <v>302</v>
-      </c>
-      <c r="G93" t="s">
-        <v>303</v>
-      </c>
       <c r="H93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B94" s="2">
         <v>2.5</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D94" t="s">
+        <v>603</v>
       </c>
       <c r="E94" t="s">
+        <v>302</v>
+      </c>
+      <c r="F94" t="s">
+        <v>303</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F94" t="s">
-        <v>305</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="H94" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B95" s="2">
         <v>2.5</v>
       </c>
       <c r="C95" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D95" t="s">
+        <v>604</v>
       </c>
       <c r="E95" t="s">
+        <v>305</v>
+      </c>
+      <c r="F95" t="s">
+        <v>306</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F95" t="s">
-        <v>308</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="H95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B96" s="2">
         <v>2.5</v>
       </c>
       <c r="C96" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D96" t="s">
+        <v>605</v>
       </c>
       <c r="E96" t="s">
+        <v>308</v>
+      </c>
+      <c r="F96" t="s">
+        <v>309</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F96" t="s">
-        <v>311</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="H96" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2">
         <v>2.5</v>
       </c>
       <c r="C97" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D97" t="s">
+        <v>606</v>
       </c>
       <c r="E97" t="s">
+        <v>311</v>
+      </c>
+      <c r="F97" t="s">
+        <v>312</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F97" t="s">
-        <v>314</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="H97" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B98" s="2">
         <v>2.5</v>
       </c>
       <c r="C98" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D98" t="s">
+        <v>607</v>
       </c>
       <c r="E98" t="s">
+        <v>314</v>
+      </c>
+      <c r="F98" t="s">
+        <v>315</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F98" t="s">
-        <v>317</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="H98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2">
         <v>2.5</v>
       </c>
       <c r="C99" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D99" t="s">
+        <v>608</v>
       </c>
       <c r="E99" t="s">
+        <v>317</v>
+      </c>
+      <c r="F99" t="s">
+        <v>318</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F99" t="s">
-        <v>320</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="H99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2">
         <v>2.5</v>
       </c>
       <c r="C100" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D100" t="s">
+        <v>609</v>
       </c>
       <c r="E100" t="s">
+        <v>320</v>
+      </c>
+      <c r="F100" t="s">
+        <v>321</v>
+      </c>
+      <c r="G100" t="s">
         <v>322</v>
       </c>
-      <c r="F100" t="s">
-        <v>323</v>
-      </c>
-      <c r="G100" t="s">
-        <v>324</v>
-      </c>
       <c r="H100" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2">
         <v>2.5</v>
       </c>
       <c r="C101" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D101" t="s">
+        <v>610</v>
       </c>
       <c r="E101" t="s">
+        <v>323</v>
+      </c>
+      <c r="F101" t="s">
+        <v>324</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F101" t="s">
-        <v>326</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="H101" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2">
         <v>2.5</v>
       </c>
       <c r="C102" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D102" t="s">
+        <v>611</v>
       </c>
       <c r="E102" t="s">
+        <v>326</v>
+      </c>
+      <c r="F102" t="s">
+        <v>327</v>
+      </c>
+      <c r="G102" t="s">
         <v>328</v>
       </c>
-      <c r="F102" t="s">
-        <v>329</v>
-      </c>
-      <c r="G102" t="s">
-        <v>330</v>
-      </c>
       <c r="H102" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2">
         <v>2.5</v>
       </c>
       <c r="C103" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D103" t="s">
+        <v>612</v>
       </c>
       <c r="E103" t="s">
+        <v>329</v>
+      </c>
+      <c r="F103" t="s">
+        <v>330</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F103" t="s">
-        <v>332</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="H103" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2">
         <v>2.5</v>
       </c>
       <c r="C104" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="D104" t="s">
+        <v>613</v>
       </c>
       <c r="E104" t="s">
+        <v>332</v>
+      </c>
+      <c r="F104" t="s">
+        <v>333</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F104" t="s">
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>335</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H104" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="45">
-      <c r="A105" t="s">
-        <v>337</v>
       </c>
       <c r="B105" s="2">
         <v>3.1</v>
       </c>
       <c r="C105" t="s">
+        <v>336</v>
+      </c>
+      <c r="D105" t="s">
+        <v>614</v>
+      </c>
+      <c r="E105" t="s">
+        <v>337</v>
+      </c>
+      <c r="F105" t="s">
         <v>338</v>
       </c>
-      <c r="E105" t="s">
+      <c r="G105" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F105" t="s">
-        <v>340</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="H105" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B106" s="2">
         <v>3.1</v>
       </c>
       <c r="C106" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D106" t="s">
+        <v>614</v>
       </c>
       <c r="E106" t="s">
+        <v>340</v>
+      </c>
+      <c r="F106" t="s">
+        <v>341</v>
+      </c>
+      <c r="G106" t="s">
         <v>342</v>
       </c>
-      <c r="F106" t="s">
-        <v>343</v>
-      </c>
-      <c r="G106" t="s">
-        <v>344</v>
-      </c>
       <c r="H106" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B107" s="2">
         <v>3.1</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D107" t="s">
+        <v>614</v>
       </c>
       <c r="E107" t="s">
+        <v>343</v>
+      </c>
+      <c r="F107" t="s">
+        <v>344</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F107" t="s">
-        <v>346</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="H107" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B108" s="2">
         <v>3.1</v>
       </c>
       <c r="C108" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D108" t="s">
+        <v>614</v>
       </c>
       <c r="E108" t="s">
+        <v>346</v>
+      </c>
+      <c r="F108" t="s">
+        <v>347</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F108" t="s">
-        <v>349</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="H108" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B109" s="2">
         <v>3.1</v>
       </c>
       <c r="C109" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D109" t="s">
+        <v>614</v>
       </c>
       <c r="E109" t="s">
+        <v>349</v>
+      </c>
+      <c r="F109" t="s">
+        <v>350</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F109" t="s">
-        <v>352</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="H109" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B110" s="2">
         <v>3.1</v>
       </c>
       <c r="C110" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D110" t="s">
+        <v>614</v>
       </c>
       <c r="E110" t="s">
+        <v>352</v>
+      </c>
+      <c r="F110" t="s">
+        <v>353</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F110" t="s">
-        <v>355</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="H110" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B111" s="2">
         <v>3.1</v>
       </c>
       <c r="C111" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D111" t="s">
+        <v>614</v>
       </c>
       <c r="E111" t="s">
+        <v>355</v>
+      </c>
+      <c r="F111" t="s">
+        <v>356</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F111" t="s">
-        <v>358</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="H111" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B112" s="2">
         <v>3.1</v>
       </c>
       <c r="C112" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D112" t="s">
+        <v>614</v>
       </c>
       <c r="E112" t="s">
+        <v>358</v>
+      </c>
+      <c r="F112" t="s">
+        <v>359</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F112" t="s">
-        <v>361</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="H112" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B113" s="2">
         <v>3.1</v>
       </c>
       <c r="C113" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D113" t="s">
+        <v>614</v>
       </c>
       <c r="E113" t="s">
+        <v>361</v>
+      </c>
+      <c r="F113" t="s">
+        <v>362</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F113" t="s">
-        <v>364</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="H113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B114" s="2">
         <v>3.1</v>
       </c>
       <c r="C114" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D114" t="s">
+        <v>614</v>
       </c>
       <c r="E114" t="s">
+        <v>364</v>
+      </c>
+      <c r="F114" t="s">
+        <v>365</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F114" t="s">
-        <v>367</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="H114" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B115" s="2">
         <v>3.1</v>
       </c>
       <c r="C115" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D115" t="s">
+        <v>614</v>
       </c>
       <c r="E115" t="s">
+        <v>367</v>
+      </c>
+      <c r="F115" t="s">
+        <v>368</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F115" t="s">
-        <v>370</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="H115" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="60">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B116" s="2">
         <v>3.1</v>
       </c>
       <c r="C116" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D116" t="s">
+        <v>614</v>
       </c>
       <c r="E116" t="s">
+        <v>370</v>
+      </c>
+      <c r="F116" t="s">
+        <v>371</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F116" t="s">
-        <v>373</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="H116" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B117" s="2">
         <v>3.1</v>
       </c>
       <c r="C117" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D117" t="s">
+        <v>614</v>
       </c>
       <c r="E117" t="s">
+        <v>373</v>
+      </c>
+      <c r="F117" t="s">
+        <v>374</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F117" t="s">
-        <v>376</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="H117" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B118" s="2">
         <v>3.2</v>
       </c>
       <c r="C118" t="s">
+        <v>376</v>
+      </c>
+      <c r="D118" t="s">
+        <v>615</v>
+      </c>
+      <c r="E118" t="s">
+        <v>377</v>
+      </c>
+      <c r="F118" t="s">
         <v>378</v>
       </c>
-      <c r="E118" t="s">
+      <c r="G118" t="s">
         <v>379</v>
       </c>
-      <c r="F118" t="s">
-        <v>380</v>
-      </c>
-      <c r="G118" t="s">
-        <v>381</v>
-      </c>
       <c r="H118" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B119" s="2">
         <v>3.2</v>
       </c>
       <c r="C119" t="s">
-        <v>378</v>
+        <v>376</v>
+      </c>
+      <c r="D119" t="s">
+        <v>616</v>
       </c>
       <c r="E119" t="s">
+        <v>380</v>
+      </c>
+      <c r="F119" t="s">
+        <v>381</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F119" t="s">
-        <v>383</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="H119" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B120" s="2">
         <v>3.2</v>
       </c>
       <c r="C120" t="s">
-        <v>378</v>
+        <v>376</v>
+      </c>
+      <c r="D120" t="s">
+        <v>617</v>
       </c>
       <c r="E120" t="s">
+        <v>383</v>
+      </c>
+      <c r="F120" t="s">
+        <v>384</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F120" t="s">
-        <v>386</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="H120" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B121" s="2">
         <v>3.2</v>
       </c>
       <c r="C121" t="s">
-        <v>378</v>
+        <v>376</v>
+      </c>
+      <c r="D121" t="s">
+        <v>618</v>
       </c>
       <c r="E121" t="s">
+        <v>386</v>
+      </c>
+      <c r="F121" t="s">
+        <v>387</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F121" t="s">
-        <v>389</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="H121" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B122" s="2">
         <v>3.2</v>
       </c>
       <c r="C122" t="s">
-        <v>378</v>
+        <v>376</v>
+      </c>
+      <c r="D122" t="s">
+        <v>619</v>
       </c>
       <c r="E122" t="s">
+        <v>389</v>
+      </c>
+      <c r="F122" t="s">
+        <v>390</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F122" t="s">
-        <v>392</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="H122" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B123" s="2">
         <v>3.2</v>
       </c>
       <c r="C123" t="s">
-        <v>378</v>
+        <v>376</v>
+      </c>
+      <c r="D123" t="s">
+        <v>620</v>
       </c>
       <c r="E123" t="s">
+        <v>392</v>
+      </c>
+      <c r="F123" t="s">
+        <v>393</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F123" t="s">
-        <v>395</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="H123" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B124" s="2">
         <v>3.3</v>
       </c>
       <c r="C124" t="s">
+        <v>395</v>
+      </c>
+      <c r="D124" t="s">
+        <v>621</v>
+      </c>
+      <c r="E124" t="s">
+        <v>396</v>
+      </c>
+      <c r="F124" t="s">
         <v>397</v>
       </c>
-      <c r="E124" t="s">
+      <c r="G124" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F124" t="s">
-        <v>399</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="H124" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B125" s="2">
         <v>3.3</v>
       </c>
       <c r="C125" t="s">
-        <v>397</v>
+        <v>395</v>
+      </c>
+      <c r="D125" t="s">
+        <v>621</v>
       </c>
       <c r="E125" t="s">
+        <v>399</v>
+      </c>
+      <c r="F125" t="s">
+        <v>400</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F125" t="s">
-        <v>402</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="H125" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B126" s="2">
         <v>3.3</v>
       </c>
       <c r="C126" t="s">
-        <v>397</v>
+        <v>395</v>
+      </c>
+      <c r="D126" t="s">
+        <v>621</v>
       </c>
       <c r="E126" t="s">
+        <v>402</v>
+      </c>
+      <c r="F126" t="s">
+        <v>403</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F126" t="s">
-        <v>405</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="H126" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B127" s="2">
         <v>3.3</v>
       </c>
       <c r="C127" t="s">
-        <v>397</v>
+        <v>395</v>
+      </c>
+      <c r="D127" t="s">
+        <v>621</v>
       </c>
       <c r="E127" t="s">
+        <v>405</v>
+      </c>
+      <c r="F127" t="s">
+        <v>406</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F127" t="s">
-        <v>408</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="H127" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B128" s="2">
         <v>3.3</v>
       </c>
       <c r="C128" t="s">
-        <v>397</v>
+        <v>395</v>
+      </c>
+      <c r="D128" t="s">
+        <v>621</v>
       </c>
       <c r="E128" t="s">
+        <v>408</v>
+      </c>
+      <c r="F128" t="s">
+        <v>409</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F128" t="s">
-        <v>411</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="H128" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B129" s="2">
         <v>3.3</v>
       </c>
       <c r="C129" t="s">
-        <v>397</v>
+        <v>395</v>
+      </c>
+      <c r="D129" t="s">
+        <v>621</v>
       </c>
       <c r="E129" t="s">
+        <v>411</v>
+      </c>
+      <c r="F129" t="s">
+        <v>412</v>
+      </c>
+      <c r="G129" t="s">
         <v>413</v>
       </c>
-      <c r="F129" t="s">
-        <v>414</v>
-      </c>
-      <c r="G129" t="s">
-        <v>415</v>
-      </c>
       <c r="H129" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B130" s="2">
         <v>3.3</v>
       </c>
       <c r="C130" t="s">
-        <v>397</v>
+        <v>395</v>
+      </c>
+      <c r="D130" t="s">
+        <v>621</v>
       </c>
       <c r="E130" t="s">
+        <v>414</v>
+      </c>
+      <c r="F130" t="s">
+        <v>415</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F130" t="s">
-        <v>417</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="H130" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B131" s="2">
         <v>3.3</v>
       </c>
       <c r="C131" t="s">
-        <v>397</v>
+        <v>395</v>
+      </c>
+      <c r="D131" t="s">
+        <v>621</v>
       </c>
       <c r="E131" t="s">
+        <v>417</v>
+      </c>
+      <c r="F131" t="s">
+        <v>418</v>
+      </c>
+      <c r="G131" t="s">
         <v>419</v>
       </c>
-      <c r="F131" t="s">
-        <v>420</v>
-      </c>
-      <c r="G131" t="s">
-        <v>421</v>
-      </c>
       <c r="H131" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B132" s="2">
         <v>3.4</v>
       </c>
       <c r="C132" t="s">
+        <v>420</v>
+      </c>
+      <c r="D132" t="s">
+        <v>622</v>
+      </c>
+      <c r="E132" t="s">
+        <v>421</v>
+      </c>
+      <c r="F132" t="s">
         <v>422</v>
       </c>
-      <c r="E132" t="s">
+      <c r="G132" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F132" t="s">
-        <v>424</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="H132" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B133" s="2">
         <v>3.5</v>
       </c>
       <c r="C133" t="s">
+        <v>424</v>
+      </c>
+      <c r="D133" t="s">
+        <v>623</v>
+      </c>
+      <c r="E133" t="s">
+        <v>425</v>
+      </c>
+      <c r="F133" t="s">
         <v>426</v>
       </c>
-      <c r="E133" t="s">
+      <c r="G133" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F133" t="s">
-        <v>428</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="H133" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B134" s="2">
         <v>3.5</v>
       </c>
       <c r="C134" t="s">
-        <v>426</v>
+        <v>424</v>
+      </c>
+      <c r="D134" t="s">
+        <v>623</v>
       </c>
       <c r="E134" t="s">
+        <v>428</v>
+      </c>
+      <c r="F134" t="s">
+        <v>429</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F134" t="s">
-        <v>431</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="H134" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B135" s="2">
         <v>3.5</v>
       </c>
       <c r="C135" t="s">
-        <v>426</v>
+        <v>424</v>
+      </c>
+      <c r="D135" t="s">
+        <v>623</v>
       </c>
       <c r="E135" t="s">
+        <v>431</v>
+      </c>
+      <c r="F135" t="s">
+        <v>432</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F135" t="s">
-        <v>434</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="H135" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B136" s="3">
         <v>3.4</v>
       </c>
       <c r="C136" t="s">
+        <v>434</v>
+      </c>
+      <c r="D136" t="s">
+        <v>624</v>
+      </c>
+      <c r="E136" t="s">
+        <v>435</v>
+      </c>
+      <c r="F136" t="s">
         <v>436</v>
       </c>
-      <c r="E136" t="s">
+      <c r="G136" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="F136" t="s">
-        <v>438</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="H136" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B137" s="3">
         <v>3.4</v>
       </c>
       <c r="C137" t="s">
-        <v>436</v>
+        <v>434</v>
+      </c>
+      <c r="D137" t="s">
+        <v>624</v>
       </c>
       <c r="E137" t="s">
+        <v>438</v>
+      </c>
+      <c r="F137" t="s">
+        <v>439</v>
+      </c>
+      <c r="G137" t="s">
         <v>440</v>
       </c>
-      <c r="F137" t="s">
-        <v>441</v>
-      </c>
-      <c r="G137" t="s">
-        <v>442</v>
-      </c>
       <c r="H137" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B138" s="3">
         <v>3.4</v>
       </c>
       <c r="C138" t="s">
+        <v>441</v>
+      </c>
+      <c r="D138" t="s">
+        <v>625</v>
+      </c>
+      <c r="E138" t="s">
+        <v>442</v>
+      </c>
+      <c r="F138" t="s">
         <v>443</v>
       </c>
-      <c r="E138" t="s">
+      <c r="G138" t="s">
         <v>444</v>
       </c>
-      <c r="F138" t="s">
-        <v>445</v>
-      </c>
-      <c r="G138" t="s">
-        <v>446</v>
-      </c>
       <c r="H138" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B139" s="3">
         <v>3.1</v>
       </c>
       <c r="C139" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D139" t="s">
+        <v>614</v>
       </c>
       <c r="E139" t="s">
+        <v>445</v>
+      </c>
+      <c r="F139" t="s">
+        <v>446</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F139" t="s">
-        <v>448</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="H139" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B140" s="3">
         <v>3.1</v>
       </c>
       <c r="C140" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D140" t="s">
+        <v>614</v>
       </c>
       <c r="E140" t="s">
+        <v>448</v>
+      </c>
+      <c r="F140" t="s">
+        <v>449</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F140" t="s">
+      <c r="H140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>451</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H140" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="30">
-      <c r="A141" t="s">
-        <v>453</v>
       </c>
       <c r="B141" s="2">
         <v>4.0999999999999996</v>
       </c>
+      <c r="C141" t="s">
+        <v>626</v>
+      </c>
+      <c r="D141" t="s">
+        <v>635</v>
+      </c>
       <c r="E141" t="s">
+        <v>452</v>
+      </c>
+      <c r="F141" t="s">
+        <v>453</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F141" t="s">
-        <v>455</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="H141" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B142" s="2">
         <v>4.0999999999999996</v>
       </c>
+      <c r="C142" t="s">
+        <v>626</v>
+      </c>
+      <c r="D142" t="s">
+        <v>636</v>
+      </c>
       <c r="E142" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F142" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H142" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B143" s="2">
         <v>4.2</v>
       </c>
+      <c r="C143" t="s">
+        <v>627</v>
+      </c>
+      <c r="D143" t="s">
+        <v>637</v>
+      </c>
       <c r="E143" t="s">
+        <v>457</v>
+      </c>
+      <c r="F143" t="s">
+        <v>458</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F143" t="s">
-        <v>460</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="H143" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B144" s="2">
         <v>4.2</v>
       </c>
+      <c r="C144" t="s">
+        <v>627</v>
+      </c>
+      <c r="D144" t="s">
+        <v>638</v>
+      </c>
       <c r="E144" t="s">
+        <v>460</v>
+      </c>
+      <c r="F144" t="s">
+        <v>461</v>
+      </c>
+      <c r="G144" t="s">
         <v>462</v>
       </c>
-      <c r="F144" t="s">
-        <v>463</v>
-      </c>
-      <c r="G144" t="s">
-        <v>464</v>
-      </c>
       <c r="H144" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B145" s="2">
         <v>4.3</v>
       </c>
+      <c r="C145" t="s">
+        <v>628</v>
+      </c>
+      <c r="D145" t="s">
+        <v>639</v>
+      </c>
       <c r="E145" t="s">
+        <v>463</v>
+      </c>
+      <c r="F145" t="s">
+        <v>464</v>
+      </c>
+      <c r="G145" t="s">
         <v>465</v>
       </c>
-      <c r="F145" t="s">
-        <v>466</v>
-      </c>
-      <c r="G145" t="s">
-        <v>467</v>
-      </c>
       <c r="H145" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B146" s="2">
         <v>4.3</v>
       </c>
+      <c r="C146" t="s">
+        <v>628</v>
+      </c>
+      <c r="D146" t="s">
+        <v>640</v>
+      </c>
       <c r="E146" t="s">
+        <v>466</v>
+      </c>
+      <c r="F146" t="s">
+        <v>467</v>
+      </c>
+      <c r="G146" t="s">
         <v>468</v>
       </c>
-      <c r="F146" t="s">
-        <v>469</v>
-      </c>
-      <c r="G146" t="s">
-        <v>470</v>
-      </c>
       <c r="H146" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B147" s="2">
         <v>4.3</v>
       </c>
+      <c r="C147" t="s">
+        <v>628</v>
+      </c>
+      <c r="D147" t="s">
+        <v>641</v>
+      </c>
       <c r="E147" t="s">
+        <v>469</v>
+      </c>
+      <c r="F147" t="s">
+        <v>470</v>
+      </c>
+      <c r="G147" t="s">
         <v>471</v>
       </c>
-      <c r="F147" t="s">
-        <v>472</v>
-      </c>
-      <c r="G147" t="s">
-        <v>473</v>
-      </c>
       <c r="H147" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B148" s="2">
         <v>4.4000000000000004</v>
       </c>
+      <c r="C148" t="s">
+        <v>629</v>
+      </c>
+      <c r="D148" t="s">
+        <v>642</v>
+      </c>
       <c r="E148" t="s">
+        <v>472</v>
+      </c>
+      <c r="F148" t="s">
+        <v>473</v>
+      </c>
+      <c r="G148" t="s">
         <v>474</v>
       </c>
-      <c r="F148" t="s">
-        <v>475</v>
-      </c>
-      <c r="G148" t="s">
-        <v>476</v>
-      </c>
       <c r="H148" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B149" s="2">
         <v>4.4000000000000004</v>
       </c>
+      <c r="C149" t="s">
+        <v>629</v>
+      </c>
+      <c r="D149" t="s">
+        <v>643</v>
+      </c>
       <c r="E149" t="s">
+        <v>475</v>
+      </c>
+      <c r="F149" t="s">
+        <v>476</v>
+      </c>
+      <c r="G149" t="s">
         <v>477</v>
       </c>
-      <c r="F149" t="s">
-        <v>478</v>
-      </c>
-      <c r="G149" t="s">
-        <v>479</v>
-      </c>
       <c r="H149" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B150" s="2">
         <v>4.4000000000000004</v>
       </c>
+      <c r="C150" t="s">
+        <v>629</v>
+      </c>
+      <c r="D150" t="s">
+        <v>644</v>
+      </c>
       <c r="E150" t="s">
+        <v>478</v>
+      </c>
+      <c r="F150" t="s">
+        <v>479</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F150" t="s">
-        <v>481</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="H150" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B151" s="2">
         <v>4.4000000000000004</v>
       </c>
+      <c r="C151" t="s">
+        <v>629</v>
+      </c>
+      <c r="D151" t="s">
+        <v>645</v>
+      </c>
       <c r="E151" t="s">
+        <v>481</v>
+      </c>
+      <c r="F151" t="s">
+        <v>482</v>
+      </c>
+      <c r="G151" t="s">
         <v>483</v>
       </c>
-      <c r="F151" t="s">
-        <v>484</v>
-      </c>
-      <c r="G151" t="s">
-        <v>485</v>
-      </c>
       <c r="H151" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B152" s="2">
         <v>4.5</v>
       </c>
+      <c r="C152" t="s">
+        <v>630</v>
+      </c>
+      <c r="D152" t="s">
+        <v>646</v>
+      </c>
       <c r="E152" t="s">
+        <v>484</v>
+      </c>
+      <c r="F152" t="s">
+        <v>485</v>
+      </c>
+      <c r="G152" t="s">
         <v>486</v>
       </c>
-      <c r="F152" t="s">
-        <v>487</v>
-      </c>
-      <c r="G152" t="s">
-        <v>488</v>
-      </c>
       <c r="H152" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B153" s="2">
         <v>4.5999999999999996</v>
       </c>
+      <c r="C153" t="s">
+        <v>631</v>
+      </c>
+      <c r="D153" t="s">
+        <v>647</v>
+      </c>
       <c r="E153" t="s">
+        <v>487</v>
+      </c>
+      <c r="F153" t="s">
+        <v>488</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F153" t="s">
-        <v>490</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="H153" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B154" s="2">
         <v>4.7</v>
       </c>
+      <c r="C154" t="s">
+        <v>632</v>
+      </c>
+      <c r="D154" t="s">
+        <v>648</v>
+      </c>
       <c r="E154" t="s">
+        <v>490</v>
+      </c>
+      <c r="F154" t="s">
+        <v>491</v>
+      </c>
+      <c r="G154" t="s">
         <v>492</v>
       </c>
-      <c r="F154" t="s">
-        <v>493</v>
-      </c>
-      <c r="G154" t="s">
-        <v>494</v>
-      </c>
       <c r="H154" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B155" s="2">
         <v>4.8</v>
       </c>
+      <c r="C155" t="s">
+        <v>633</v>
+      </c>
+      <c r="D155" t="s">
+        <v>649</v>
+      </c>
       <c r="E155" t="s">
+        <v>493</v>
+      </c>
+      <c r="F155" t="s">
+        <v>494</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F155" t="s">
+      <c r="H155" t="s">
         <v>496</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H155" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="60">
+    </row>
+    <row r="156" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B156" s="2">
         <v>4.8</v>
       </c>
+      <c r="C156" t="s">
+        <v>633</v>
+      </c>
+      <c r="D156" t="s">
+        <v>650</v>
+      </c>
       <c r="E156" t="s">
+        <v>497</v>
+      </c>
+      <c r="F156" t="s">
+        <v>498</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="F156" t="s">
-        <v>500</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H156" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="30">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B157" s="2">
         <v>4.8</v>
       </c>
+      <c r="C157" t="s">
+        <v>633</v>
+      </c>
+      <c r="D157" t="s">
+        <v>651</v>
+      </c>
       <c r="E157" t="s">
+        <v>500</v>
+      </c>
+      <c r="F157" t="s">
+        <v>501</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F157" t="s">
-        <v>503</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="H157" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="30">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B158" s="2">
         <v>4.8</v>
       </c>
+      <c r="C158" t="s">
+        <v>633</v>
+      </c>
+      <c r="D158" t="s">
+        <v>652</v>
+      </c>
       <c r="E158" t="s">
+        <v>503</v>
+      </c>
+      <c r="F158" t="s">
+        <v>504</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F158" t="s">
-        <v>506</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="H158" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B159" s="2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="C159" t="s">
+        <v>634</v>
+      </c>
+      <c r="D159" t="s">
+        <v>653</v>
+      </c>
       <c r="E159" t="s">
+        <v>506</v>
+      </c>
+      <c r="F159" t="s">
+        <v>507</v>
+      </c>
+      <c r="G159" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="F159" t="s">
-        <v>509</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="H159" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B160" s="2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="C160" t="s">
+        <v>634</v>
+      </c>
+      <c r="D160" t="s">
+        <v>654</v>
+      </c>
       <c r="E160" t="s">
+        <v>509</v>
+      </c>
+      <c r="F160" t="s">
+        <v>510</v>
+      </c>
+      <c r="G160" t="s">
         <v>511</v>
       </c>
-      <c r="F160" t="s">
-        <v>512</v>
-      </c>
-      <c r="G160" t="s">
-        <v>513</v>
-      </c>
       <c r="H160" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B161" s="2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="C161" t="s">
+        <v>634</v>
+      </c>
+      <c r="D161" t="s">
+        <v>655</v>
+      </c>
       <c r="E161" t="s">
+        <v>512</v>
+      </c>
+      <c r="F161" t="s">
+        <v>513</v>
+      </c>
+      <c r="G161" t="s">
         <v>514</v>
       </c>
-      <c r="F161" t="s">
-        <v>515</v>
-      </c>
-      <c r="G161" t="s">
-        <v>516</v>
-      </c>
       <c r="H161" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>517</v>
-      </c>
-      <c r="E163" t="s">
-        <v>518</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{3599742F-9223-4AE6-89A8-2176913694A0}"/>
-    <hyperlink ref="D5" r:id="rId2" display="https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a8" xr:uid="{73AAD63A-59B7-49CE-8560-6CADC7EC9CF9}"/>
-    <hyperlink ref="D17" r:id="rId3" display="https://satre-archimate.readthedocs.io/en/latest/?view=id-613a204c1e324a4c8bb427a57152af77" xr:uid="{3A1D7BB0-AB80-4EE4-8A4C-EDD3729B7847}"/>
-    <hyperlink ref="D22" r:id="rId4" display="https://satre-archimate.readthedocs.io/en/latest/?view=id-410884ca4e76424c9a5486780d339165" xr:uid="{78D83449-29DD-4F75-B999-5C154DD1EC8A}"/>
-    <hyperlink ref="D29" r:id="rId5" display="https://satre-archimate.readthedocs.io/en/latest/?view=id-85f613508f004ef18e19fdf041e1f0a0" xr:uid="{D60CACA5-55A9-4940-8BF7-F6FCF98D0AD2}"/>
-    <hyperlink ref="D35" r:id="rId6" display="https://satre-archimate.readthedocs.io/en/latest/?view=id-ba6c25da48e94d37abe02e4dca7b55b7" xr:uid="{041E505A-B665-4A0F-9D44-72B8D1971768}"/>
-    <hyperlink ref="D3:D4" r:id="rId7" display="Info Gov 1.1" xr:uid="{A78E17CE-735B-4F8F-BFF5-2A681717951A}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{73AAD63A-59B7-49CE-8560-6CADC7EC9CF9}"/>
+    <hyperlink ref="D6:D16" r:id="rId2" display="https://satre-archimate.readthedocs.io/en/latest/?view=id-8ce3c73e5dc346e99903a594cf6f23a8" xr:uid="{42612810-2FD5-47A6-8AFE-D8BFF5E4CB11}"/>
+    <hyperlink ref="D17" r:id="rId3" xr:uid="{F8FF4CF4-35E4-44CC-9DAB-FB44FC533AA4}"/>
+    <hyperlink ref="D18:D21" r:id="rId4" display="https://satre-archimate.readthedocs.io/en/latest/?view=id-613a204c1e324a4c8bb427a57152af77" xr:uid="{ECF21010-2D0C-483B-9B33-B19A9C40B02B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
